--- a/results_analysis/results_cov_D100.xlsx
+++ b/results_analysis/results_cov_D100.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/826e759ec9f8b5cf/研一上学期/最优化理论/final/optimization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/826e759ec9f8b5cf/研一上学期/最优化理论/final/optimization/results_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="356" documentId="11_AD4DA82427541F7ACA7EB83EE8CB121C6AE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A922F037-BAA6-448D-B93A-8090FE1DEEC4}"/>
+  <xr:revisionPtr revIDLastSave="359" documentId="11_AD4DA82427541F7ACA7EB83EE8CB121C6AE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{410802A6-5D96-4E49-9BF6-0A3D1E80107C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5433,8 +5433,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3375</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5472,10 +5472,10 @@
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>445294</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>553894</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>46237</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
